--- a/src/resources/testdata/InCartProducts.xlsx
+++ b/src/resources/testdata/InCartProducts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivam_kushwaha\eclipse-workspace\ShoppingPortal\src\resources\testdata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="49">
   <si>
     <t>imageSrc</t>
   </si>
@@ -155,12 +155,25 @@
   </si>
   <si>
     <t>http://localhost//shopping/product-details.php?pid=20</t>
+  </si>
+  <si>
+    <t>http://localhost//shopping/admin/productimages/21/SamsungTVFrontView.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost//shopping/product-details.php?pid=21</t>
+  </si>
+  <si>
+    <t>http://localhost//shopping/admin/productimages/22/SamsungTVFrontView.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost//shopping/product-details.php?pid=22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -530,40 +543,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -574,13 +588,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
+      <c r="C3"/>
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -591,13 +606,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -608,13 +624,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -625,13 +642,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6"/>
       <c r="D6" t="s">
         <v>8</v>
       </c>
@@ -642,13 +660,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="C7"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -659,13 +678,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
+      <c r="C8"/>
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -676,13 +696,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
+      <c r="C9"/>
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -693,13 +714,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
+      <c r="C10"/>
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -710,13 +732,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
+      <c r="C11"/>
       <c r="D11" t="s">
         <v>8</v>
       </c>
@@ -727,13 +750,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
+      <c r="C12"/>
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -744,13 +768,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
+      <c r="C13"/>
       <c r="D13" t="s">
         <v>8</v>
       </c>
@@ -761,13 +786,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
+      <c r="C14"/>
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -778,13 +804,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
+      <c r="C15"/>
       <c r="D15" t="s">
         <v>8</v>
       </c>
@@ -795,13 +822,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
+      <c r="C16"/>
       <c r="D16" t="s">
         <v>8</v>
       </c>
@@ -812,13 +840,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
+      <c r="C17"/>
       <c r="D17" t="s">
         <v>8</v>
       </c>
@@ -829,13 +858,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
+      <c r="C18"/>
       <c r="D18" t="s">
         <v>8</v>
       </c>
@@ -846,13 +876,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
+      <c r="C19"/>
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -860,6 +891,42 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
         <v>10</v>
       </c>
     </row>
